--- a/REGULAR/OJT/REYES, NORALYN BEDUA.xlsx
+++ b/REGULAR/OJT/REYES, NORALYN BEDUA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDF485-9717-4F1E-997C-B49C7F758471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4DE9E-960A-4A9D-98E6-B73C6BA70036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="374">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1154,6 +1154,9 @@
   </si>
   <si>
     <t>6/26,27/2023</t>
+  </si>
+  <si>
+    <t>7/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3624,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A483" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B490" sqref="B490"/>
+      <selection pane="bottomLeft" activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3787,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.825500000000034</v>
+        <v>80.825500000000034</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14771,9 +14774,13 @@
       <c r="A490" s="40">
         <v>45138</v>
       </c>
-      <c r="B490" s="20"/>
+      <c r="B490" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C490" s="13"/>
-      <c r="D490" s="39"/>
+      <c r="D490" s="39">
+        <v>2</v>
+      </c>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
       <c r="G490" s="13" t="str">
@@ -14783,7 +14790,9 @@
       <c r="H490" s="39"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="20" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
@@ -15686,7 +15695,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>248.32550000000003</v>
+        <v>246.32550000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
